--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Amputación extremidades inferiores.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Amputación extremidades inferiores.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28.49667770884433</v>
+        <v>28.51541462446781</v>
       </c>
       <c r="B2" t="n">
-        <v>25.6401779769232</v>
+        <v>25.51142295962591</v>
       </c>
       <c r="C2" t="n">
-        <v>31.8542505902337</v>
+        <v>31.7991150398072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22.23438613989876</v>
+        <v>22.25585576105784</v>
       </c>
       <c r="B3" t="n">
-        <v>15.94052503443111</v>
+        <v>15.97302237025835</v>
       </c>
       <c r="C3" t="n">
-        <v>28.51003661989971</v>
+        <v>28.66912699016356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23.10523837475546</v>
+        <v>23.05137957723008</v>
       </c>
       <c r="B4" t="n">
-        <v>18.03491280042452</v>
+        <v>17.82749041943472</v>
       </c>
       <c r="C4" t="n">
-        <v>28.4555700532162</v>
+        <v>28.02240568169178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27.15734225776925</v>
+        <v>27.05833038679527</v>
       </c>
       <c r="B5" t="n">
-        <v>20.06380350228696</v>
+        <v>20.08663067962028</v>
       </c>
       <c r="C5" t="n">
-        <v>33.97106084178801</v>
+        <v>34.2828205169893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30.33838626808021</v>
+        <v>30.36072101474461</v>
       </c>
       <c r="B6" t="n">
-        <v>26.21278805528758</v>
+        <v>26.44783789281137</v>
       </c>
       <c r="C6" t="n">
-        <v>34.76937203733682</v>
+        <v>34.59189900390377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24.39795077256964</v>
+        <v>24.37532435074546</v>
       </c>
       <c r="B7" t="n">
-        <v>21.91372055270294</v>
+        <v>21.60866166128789</v>
       </c>
       <c r="C7" t="n">
-        <v>27.20664245252198</v>
+        <v>27.18162748542422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.55414550910771</v>
+        <v>18.57787027929137</v>
       </c>
       <c r="B8" t="n">
-        <v>16.28927927796171</v>
+        <v>16.32046993974671</v>
       </c>
       <c r="C8" t="n">
-        <v>20.61893959380832</v>
+        <v>20.58476732696001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28.05967022587858</v>
+        <v>28.11279401053422</v>
       </c>
       <c r="B9" t="n">
-        <v>23.99024090257387</v>
+        <v>24.09200286578591</v>
       </c>
       <c r="C9" t="n">
-        <v>32.04964118519617</v>
+        <v>32.07790012100787</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20.22839814700372</v>
+        <v>20.16732719625286</v>
       </c>
       <c r="B10" t="n">
-        <v>18.01925510815229</v>
+        <v>17.95955450840523</v>
       </c>
       <c r="C10" t="n">
-        <v>22.5195465822361</v>
+        <v>22.40156183391565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>27.09244538373888</v>
+        <v>27.18587506358066</v>
       </c>
       <c r="B11" t="n">
-        <v>24.37276150782711</v>
+        <v>24.29430315253474</v>
       </c>
       <c r="C11" t="n">
-        <v>30.44084260117801</v>
+        <v>30.43470810300648</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>34.10835102176009</v>
+        <v>34.08247422477606</v>
       </c>
       <c r="B12" t="n">
-        <v>30.40587044530057</v>
+        <v>30.27944907125182</v>
       </c>
       <c r="C12" t="n">
-        <v>37.63146479291243</v>
+        <v>37.79429511272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>25.82596494726561</v>
+        <v>25.79867440168809</v>
       </c>
       <c r="B13" t="n">
-        <v>22.61646201677574</v>
+        <v>22.61251849102035</v>
       </c>
       <c r="C13" t="n">
-        <v>29.09308938116597</v>
+        <v>29.08675109757067</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25.79804745729653</v>
+        <v>25.78301001085314</v>
       </c>
       <c r="B14" t="n">
-        <v>22.83269464427414</v>
+        <v>22.8566237706098</v>
       </c>
       <c r="C14" t="n">
-        <v>28.86248628870475</v>
+        <v>28.97182714690977</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>32.13621825187661</v>
+        <v>31.90421718790628</v>
       </c>
       <c r="B15" t="n">
-        <v>23.69651290984776</v>
+        <v>23.50875671478268</v>
       </c>
       <c r="C15" t="n">
-        <v>39.54962446246021</v>
+        <v>39.77631477124827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>30.32106532334734</v>
+        <v>30.34625591636008</v>
       </c>
       <c r="B16" t="n">
-        <v>26.21817131173673</v>
+        <v>26.46846294177395</v>
       </c>
       <c r="C16" t="n">
-        <v>34.77364334641191</v>
+        <v>34.63785526380993</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>34.22402530351806</v>
+        <v>34.05810921320352</v>
       </c>
       <c r="B17" t="n">
-        <v>30.28309881854716</v>
+        <v>30.4392938455772</v>
       </c>
       <c r="C17" t="n">
-        <v>37.47111784926927</v>
+        <v>37.69952022405466</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23.09144840024422</v>
+        <v>22.99588535120866</v>
       </c>
       <c r="B18" t="n">
-        <v>18.0282668372914</v>
+        <v>17.63798837506834</v>
       </c>
       <c r="C18" t="n">
-        <v>27.92833398485066</v>
+        <v>27.99345602621706</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30.71571254580649</v>
+        <v>30.80462091641987</v>
       </c>
       <c r="B19" t="n">
-        <v>27.24663960390185</v>
+        <v>27.01525597411609</v>
       </c>
       <c r="C19" t="n">
-        <v>34.56151269942338</v>
+        <v>34.68717226359928</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>34.89440075692428</v>
+        <v>34.9473738589548</v>
       </c>
       <c r="B20" t="n">
-        <v>30.29221372888325</v>
+        <v>30.38752113162489</v>
       </c>
       <c r="C20" t="n">
-        <v>39.47539970640459</v>
+        <v>39.60989701792482</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32.60649958573691</v>
+        <v>32.75506573647809</v>
       </c>
       <c r="B21" t="n">
-        <v>27.44095679543674</v>
+        <v>27.11668045086042</v>
       </c>
       <c r="C21" t="n">
-        <v>37.75602303538917</v>
+        <v>37.32843546979694</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.78252992621081</v>
+        <v>21.80995717900162</v>
       </c>
       <c r="B22" t="n">
-        <v>18.98316294301929</v>
+        <v>18.93776961292972</v>
       </c>
       <c r="C22" t="n">
-        <v>24.65539200211796</v>
+        <v>24.64380067894182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34.81715753136265</v>
+        <v>34.82257063613874</v>
       </c>
       <c r="B23" t="n">
-        <v>27.51161141389023</v>
+        <v>27.5341585525012</v>
       </c>
       <c r="C23" t="n">
-        <v>42.02267798458351</v>
+        <v>42.07012057842832</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>30.32262241479766</v>
+        <v>30.39168735149386</v>
       </c>
       <c r="B24" t="n">
-        <v>26.23023396930504</v>
+        <v>26.51715560414863</v>
       </c>
       <c r="C24" t="n">
-        <v>34.82474450297985</v>
+        <v>34.68725751168721</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25.37553684406009</v>
+        <v>25.61120525301443</v>
       </c>
       <c r="B25" t="n">
-        <v>21.89530207914327</v>
+        <v>22.09335832702901</v>
       </c>
       <c r="C25" t="n">
-        <v>29.64842659152009</v>
+        <v>29.70619369243233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>32.63273802965488</v>
+        <v>32.71103480598697</v>
       </c>
       <c r="B26" t="n">
-        <v>27.34418425661787</v>
+        <v>26.46723420982992</v>
       </c>
       <c r="C26" t="n">
-        <v>38.14458349063904</v>
+        <v>37.97485425997139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28.61985996213398</v>
+        <v>28.67089261496256</v>
       </c>
       <c r="B27" t="n">
-        <v>25.52596939172797</v>
+        <v>25.56840679581229</v>
       </c>
       <c r="C27" t="n">
-        <v>32.10208530298411</v>
+        <v>32.03518736716897</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.48152958204426</v>
+        <v>26.46687990905067</v>
       </c>
       <c r="B28" t="n">
-        <v>23.60431378360048</v>
+        <v>23.52109760193689</v>
       </c>
       <c r="C28" t="n">
-        <v>29.44419325629528</v>
+        <v>29.42048037447858</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>36.92383648260075</v>
+        <v>36.72459776692349</v>
       </c>
       <c r="B29" t="n">
-        <v>29.22052918731221</v>
+        <v>29.08878502376017</v>
       </c>
       <c r="C29" t="n">
-        <v>43.89729634173197</v>
+        <v>43.7303415509771</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>31.97391167316777</v>
+        <v>31.92652740531376</v>
       </c>
       <c r="B30" t="n">
-        <v>28.02487545757883</v>
+        <v>28.49314262722579</v>
       </c>
       <c r="C30" t="n">
-        <v>35.25214066004166</v>
+        <v>35.23039431621249</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23.98593955331302</v>
+        <v>23.98535853781496</v>
       </c>
       <c r="B31" t="n">
-        <v>20.81576320556652</v>
+        <v>20.79367476935354</v>
       </c>
       <c r="C31" t="n">
-        <v>26.89449486347154</v>
+        <v>26.91687765369139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>21.06637273140433</v>
+        <v>21.08124153907659</v>
       </c>
       <c r="B32" t="n">
-        <v>18.73540180502561</v>
+        <v>18.662561082002</v>
       </c>
       <c r="C32" t="n">
-        <v>23.70019129626769</v>
+        <v>23.65620670138344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>25.66453044490851</v>
+        <v>25.67532693977791</v>
       </c>
       <c r="B33" t="n">
-        <v>22.66398985128145</v>
+        <v>22.64679942108379</v>
       </c>
       <c r="C33" t="n">
-        <v>28.79922249592353</v>
+        <v>28.86830485503478</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>34.28820166017887</v>
+        <v>34.36223268485242</v>
       </c>
       <c r="B34" t="n">
-        <v>30.67882165809834</v>
+        <v>30.70663890948799</v>
       </c>
       <c r="C34" t="n">
-        <v>38.32113453671247</v>
+        <v>38.50026941071764</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32.61614809068853</v>
+        <v>32.57906889541039</v>
       </c>
       <c r="B35" t="n">
-        <v>28.07712706366136</v>
+        <v>28.45223320945659</v>
       </c>
       <c r="C35" t="n">
-        <v>36.93853447503202</v>
+        <v>36.91773690777674</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>24.45006931898661</v>
+        <v>24.41196351058469</v>
       </c>
       <c r="B36" t="n">
-        <v>21.92909236836055</v>
+        <v>21.60834160200385</v>
       </c>
       <c r="C36" t="n">
-        <v>27.2278547375339</v>
+        <v>27.23116296881804</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>34.91749738166855</v>
+        <v>35.41118491982756</v>
       </c>
       <c r="B37" t="n">
-        <v>29.75086921314839</v>
+        <v>29.68441667383447</v>
       </c>
       <c r="C37" t="n">
-        <v>40.8437049673357</v>
+        <v>40.93687145152457</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>28.82150889810028</v>
+        <v>28.83161577189314</v>
       </c>
       <c r="B38" t="n">
-        <v>25.61129568264082</v>
+        <v>25.66492001892161</v>
       </c>
       <c r="C38" t="n">
-        <v>32.39170074752566</v>
+        <v>32.35612546067367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>35.80996762198423</v>
+        <v>35.8555231823269</v>
       </c>
       <c r="B39" t="n">
-        <v>31.91382980427912</v>
+        <v>31.87649645875045</v>
       </c>
       <c r="C39" t="n">
-        <v>39.62471056529687</v>
+        <v>39.72485114335048</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>28.03327869242543</v>
+        <v>27.987184993619</v>
       </c>
       <c r="B40" t="n">
-        <v>23.24822778158333</v>
+        <v>23.07361564754637</v>
       </c>
       <c r="C40" t="n">
-        <v>33.29125260357609</v>
+        <v>32.86890422776501</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>22.35547385565903</v>
+        <v>22.42246372837064</v>
       </c>
       <c r="B41" t="n">
-        <v>19.73570375781349</v>
+        <v>19.89414530412046</v>
       </c>
       <c r="C41" t="n">
-        <v>25.20617862145078</v>
+        <v>25.20593907512853</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>28.85503533068846</v>
+        <v>28.86433194979812</v>
       </c>
       <c r="B42" t="n">
-        <v>25.64944496314094</v>
+        <v>25.67399500392279</v>
       </c>
       <c r="C42" t="n">
-        <v>32.184606638977</v>
+        <v>32.14947489185039</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>31.96827387052856</v>
+        <v>31.90149893669372</v>
       </c>
       <c r="B43" t="n">
-        <v>28.02613073582937</v>
+        <v>28.42758337975143</v>
       </c>
       <c r="C43" t="n">
-        <v>35.24180456999604</v>
+        <v>35.22510106079826</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21.36648456485273</v>
+        <v>21.36480862600348</v>
       </c>
       <c r="B44" t="n">
-        <v>18.77650579745591</v>
+        <v>18.66260073062385</v>
       </c>
       <c r="C44" t="n">
-        <v>24.12421878208337</v>
+        <v>24.18323627639434</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>32.00036347571056</v>
+        <v>32.03568875626988</v>
       </c>
       <c r="B45" t="n">
-        <v>28.26000884502842</v>
+        <v>28.07543052794952</v>
       </c>
       <c r="C45" t="n">
-        <v>35.88993661279785</v>
+        <v>35.86744093925697</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>21.95738539748617</v>
+        <v>21.97844619102932</v>
       </c>
       <c r="B46" t="n">
-        <v>19.54639395981069</v>
+        <v>19.60179687370963</v>
       </c>
       <c r="C46" t="n">
-        <v>24.55143315780349</v>
+        <v>24.62062785779077</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23.42357188723141</v>
+        <v>23.45557266864113</v>
       </c>
       <c r="B47" t="n">
-        <v>20.72897243074411</v>
+        <v>20.75414246447868</v>
       </c>
       <c r="C47" t="n">
-        <v>26.51232155668824</v>
+        <v>26.54507026952158</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>34.09830991271983</v>
+        <v>34.04304821481757</v>
       </c>
       <c r="B48" t="n">
-        <v>30.26895207378476</v>
+        <v>30.20978619686585</v>
       </c>
       <c r="C48" t="n">
-        <v>37.52766418175917</v>
+        <v>37.75068216899476</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25.43585640711119</v>
+        <v>25.74833846352197</v>
       </c>
       <c r="B49" t="n">
-        <v>20.71010940489582</v>
+        <v>21.03496185819164</v>
       </c>
       <c r="C49" t="n">
-        <v>30.59304163850894</v>
+        <v>30.92795723557029</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>34.91096416524262</v>
+        <v>35.38566221054234</v>
       </c>
       <c r="B50" t="n">
-        <v>29.89420359180756</v>
+        <v>29.63575608392734</v>
       </c>
       <c r="C50" t="n">
-        <v>40.63958683280541</v>
+        <v>40.89417186443777</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>22.2369710242784</v>
+        <v>22.28272382817056</v>
       </c>
       <c r="B51" t="n">
-        <v>15.91106409119677</v>
+        <v>16.02596892543221</v>
       </c>
       <c r="C51" t="n">
-        <v>28.61746611227667</v>
+        <v>28.67372154748251</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20.39240695763128</v>
+        <v>20.38592705416354</v>
       </c>
       <c r="B52" t="n">
-        <v>17.92995124381961</v>
+        <v>17.84167645736595</v>
       </c>
       <c r="C52" t="n">
-        <v>23.29075065711368</v>
+        <v>23.34262459278627</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>35.89924807063311</v>
+        <v>35.92000503397135</v>
       </c>
       <c r="B53" t="n">
-        <v>32.43339927270841</v>
+        <v>32.01397488309934</v>
       </c>
       <c r="C53" t="n">
-        <v>39.54039326700765</v>
+        <v>39.63249876329957</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>32.12847081883123</v>
+        <v>31.90714649542242</v>
       </c>
       <c r="B54" t="n">
-        <v>23.69951447519993</v>
+        <v>23.53193615658738</v>
       </c>
       <c r="C54" t="n">
-        <v>39.7853883946301</v>
+        <v>39.80576543179825</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>32.6193318276595</v>
+        <v>32.78331516705319</v>
       </c>
       <c r="B55" t="n">
-        <v>27.50262587489706</v>
+        <v>27.6695494013407</v>
       </c>
       <c r="C55" t="n">
-        <v>37.96222750433395</v>
+        <v>38.03219964611328</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>23.94184438007331</v>
+        <v>23.9439608955713</v>
       </c>
       <c r="B56" t="n">
-        <v>21.25479537606201</v>
+        <v>21.31372376851823</v>
       </c>
       <c r="C56" t="n">
-        <v>26.70891444151745</v>
+        <v>26.67906419719397</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>21.06482101275871</v>
+        <v>21.07896347036549</v>
       </c>
       <c r="B57" t="n">
-        <v>18.73820157847155</v>
+        <v>18.67951945920808</v>
       </c>
       <c r="C57" t="n">
-        <v>23.69059306046524</v>
+        <v>23.64321572038936</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>34.94767818630431</v>
+        <v>35.44095702616701</v>
       </c>
       <c r="B58" t="n">
-        <v>29.82235019667133</v>
+        <v>29.76550065509952</v>
       </c>
       <c r="C58" t="n">
-        <v>40.80531744931645</v>
+        <v>40.69011109332545</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>25.11640426330012</v>
+        <v>25.11558039467248</v>
       </c>
       <c r="B59" t="n">
-        <v>22.19954575555242</v>
+        <v>22.17321500147788</v>
       </c>
       <c r="C59" t="n">
-        <v>28.38835529492298</v>
+        <v>28.44651881624265</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>34.79276615548181</v>
+        <v>34.9220590779423</v>
       </c>
       <c r="B60" t="n">
-        <v>27.72130537448066</v>
+        <v>27.67000236912793</v>
       </c>
       <c r="C60" t="n">
-        <v>41.91328682068384</v>
+        <v>42.45642769960442</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>27.20845568335492</v>
+        <v>27.18941033937773</v>
       </c>
       <c r="B61" t="n">
-        <v>24.03119542820417</v>
+        <v>24.05069727602547</v>
       </c>
       <c r="C61" t="n">
-        <v>30.3133889135088</v>
+        <v>30.15998240707067</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>27.09264957511605</v>
+        <v>27.12062629274434</v>
       </c>
       <c r="B62" t="n">
-        <v>24.37438198726068</v>
+        <v>24.24139091299088</v>
       </c>
       <c r="C62" t="n">
-        <v>30.4363904017348</v>
+        <v>30.36898203933858</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>30.22418036887687</v>
+        <v>30.29709564388545</v>
       </c>
       <c r="B63" t="n">
-        <v>26.57653512156544</v>
+        <v>26.68156986817262</v>
       </c>
       <c r="C63" t="n">
-        <v>34.02491398082323</v>
+        <v>34.01539777111161</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>34.80744581940904</v>
+        <v>34.93643977085534</v>
       </c>
       <c r="B64" t="n">
-        <v>27.66890416770954</v>
+        <v>27.66467961789436</v>
       </c>
       <c r="C64" t="n">
-        <v>41.93790118049407</v>
+        <v>42.3527481044765</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>19.2764645969356</v>
+        <v>19.2879347096092</v>
       </c>
       <c r="B65" t="n">
-        <v>16.92618305776211</v>
+        <v>16.91737711187096</v>
       </c>
       <c r="C65" t="n">
-        <v>21.76376745401856</v>
+        <v>21.74451204522518</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>32.45587826912816</v>
+        <v>32.45288066287506</v>
       </c>
       <c r="B66" t="n">
-        <v>28.98082298435463</v>
+        <v>28.58991557998448</v>
       </c>
       <c r="C66" t="n">
-        <v>36.2946863358039</v>
+        <v>36.30700802771688</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>30.49926181368427</v>
+        <v>30.39865854329875</v>
       </c>
       <c r="B67" t="n">
-        <v>27.3459521092926</v>
+        <v>27.04289746513122</v>
       </c>
       <c r="C67" t="n">
-        <v>33.77030475888303</v>
+        <v>33.57940980553768</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>30.36346978804993</v>
+        <v>30.48126474779218</v>
       </c>
       <c r="B68" t="n">
-        <v>25.71826816436614</v>
+        <v>25.47849874643118</v>
       </c>
       <c r="C68" t="n">
-        <v>35.91330731630686</v>
+        <v>35.66315275719328</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>23.31607927519165</v>
+        <v>23.33309178856802</v>
       </c>
       <c r="B69" t="n">
-        <v>20.4852857293871</v>
+        <v>20.46892466202684</v>
       </c>
       <c r="C69" t="n">
-        <v>26.25662520979806</v>
+        <v>26.2616795960842</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>28.09808958770845</v>
+        <v>28.19854607549327</v>
       </c>
       <c r="B70" t="n">
-        <v>23.15490345318701</v>
+        <v>22.77045372073315</v>
       </c>
       <c r="C70" t="n">
-        <v>33.48828999414355</v>
+        <v>33.81401160640677</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>22.99170292024902</v>
+        <v>22.88830681871856</v>
       </c>
       <c r="B71" t="n">
-        <v>19.75040948726871</v>
+        <v>19.89358243355528</v>
       </c>
       <c r="C71" t="n">
-        <v>26.10732734563838</v>
+        <v>26.13214250315592</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>27.57076883724452</v>
+        <v>27.58274790002504</v>
       </c>
       <c r="B72" t="n">
-        <v>23.98103598829726</v>
+        <v>24.37758645660139</v>
       </c>
       <c r="C72" t="n">
-        <v>30.98659211939766</v>
+        <v>30.98902035058762</v>
       </c>
     </row>
   </sheetData>
